--- a/Mifos Automation Excels/Loan Product/581-MS-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/581-MS-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="180" yWindow="2955" windowWidth="19050" windowHeight="5580"/>
   </bookViews>
   <sheets>
-    <sheet name="ProductLoan_Input" sheetId="6" r:id="rId1"/>
-    <sheet name="ProductLoan_Output" sheetId="7" r:id="rId2"/>
+    <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
+    <sheet name="ProductLoanOutput" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>productname</t>
   </si>
@@ -128,9 +128,6 @@
     <t>nominalinterestratedefault</t>
   </si>
   <si>
-    <t>maximumallowedaoutstandingbalance</t>
-  </si>
-  <si>
     <t>preclosureinterestcalculationrule</t>
   </si>
   <si>
@@ -213,6 +210,18 @@
   </si>
   <si>
     <t>Mifos style</t>
+  </si>
+  <si>
+    <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>accrualperiodic</t>
+  </si>
+  <si>
+    <t>NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalancefortranchloan</t>
   </si>
 </sst>
 </file>
@@ -284,12 +293,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -606,19 +613,21 @@
     <col min="2" max="2" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>64</v>
+      <c r="B1" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -737,7 +746,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -774,10 +783,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -806,18 +815,18 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="5">
+        <v>33</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="5">
         <v>10000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -829,99 +838,107 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
+      <c r="A29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -935,7 +952,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -946,10 +963,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/581-MS-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/581-MS-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -665,7 +665,7 @@
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -952,7 +952,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Mifos Automation Excels/Loan Product/581-MS-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/581-MS-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -209,9 +209,6 @@
     <t>581-MS-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment</t>
   </si>
   <si>
-    <t>Mifos style</t>
-  </si>
-  <si>
     <t>verifyloanproduct</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>maximumallowedoutstandingbalancefortranchloan</t>
+  </si>
+  <si>
+    <t>Penalties, Fees, Interest, Principal order</t>
   </si>
 </sst>
 </file>
@@ -279,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -297,6 +297,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +607,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -626,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -745,8 +748,8 @@
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>64</v>
+      <c r="B17" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -823,7 +826,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="5">
         <v>10000</v>
@@ -839,7 +842,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>8</v>
@@ -963,7 +966,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>63</v>
